--- a/sequences/14_retrieval_1.xlsx
+++ b/sequences/14_retrieval_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1677" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="473">
   <si>
     <t>word</t>
   </si>
@@ -1856,6 +1856,30 @@
       <c r="F2" t="s">
         <v>205</v>
       </c>
+      <c r="G2" t="s">
+        <v>205</v>
+      </c>
+      <c r="H2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
+        <v>205</v>
+      </c>
+      <c r="K2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L2" t="s">
+        <v>205</v>
+      </c>
+      <c r="M2" t="s">
+        <v>205</v>
+      </c>
+      <c r="N2" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
@@ -1920,6 +1944,30 @@
       <c r="F4" t="s">
         <v>205</v>
       </c>
+      <c r="G4" t="s">
+        <v>205</v>
+      </c>
+      <c r="H4" t="s">
+        <v>205</v>
+      </c>
+      <c r="I4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J4" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" t="s">
+        <v>205</v>
+      </c>
+      <c r="L4" t="s">
+        <v>205</v>
+      </c>
+      <c r="M4" t="s">
+        <v>205</v>
+      </c>
+      <c r="N4" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
@@ -1984,6 +2032,30 @@
       <c r="F6" t="s">
         <v>205</v>
       </c>
+      <c r="G6" t="s">
+        <v>205</v>
+      </c>
+      <c r="H6" t="s">
+        <v>205</v>
+      </c>
+      <c r="I6" t="s">
+        <v>205</v>
+      </c>
+      <c r="J6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" t="s">
+        <v>205</v>
+      </c>
+      <c r="L6" t="s">
+        <v>205</v>
+      </c>
+      <c r="M6" t="s">
+        <v>205</v>
+      </c>
+      <c r="N6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
@@ -2224,6 +2296,30 @@
       <c r="F12" t="s">
         <v>205</v>
       </c>
+      <c r="G12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" t="s">
+        <v>205</v>
+      </c>
+      <c r="I12" t="s">
+        <v>205</v>
+      </c>
+      <c r="J12" t="s">
+        <v>205</v>
+      </c>
+      <c r="K12" t="s">
+        <v>205</v>
+      </c>
+      <c r="L12" t="s">
+        <v>205</v>
+      </c>
+      <c r="M12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
@@ -2508,6 +2604,30 @@
       <c r="F19" t="s">
         <v>205</v>
       </c>
+      <c r="G19" t="s">
+        <v>205</v>
+      </c>
+      <c r="H19" t="s">
+        <v>205</v>
+      </c>
+      <c r="I19" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" t="s">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s">
+        <v>205</v>
+      </c>
+      <c r="L19" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" t="s">
+        <v>205</v>
+      </c>
+      <c r="N19" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
@@ -2528,6 +2648,30 @@
       <c r="F20" t="s">
         <v>205</v>
       </c>
+      <c r="G20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" t="s">
+        <v>205</v>
+      </c>
+      <c r="I20" t="s">
+        <v>205</v>
+      </c>
+      <c r="J20" t="s">
+        <v>205</v>
+      </c>
+      <c r="K20" t="s">
+        <v>205</v>
+      </c>
+      <c r="L20" t="s">
+        <v>205</v>
+      </c>
+      <c r="M20" t="s">
+        <v>205</v>
+      </c>
+      <c r="N20" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
@@ -2592,6 +2736,30 @@
       <c r="F22" t="s">
         <v>205</v>
       </c>
+      <c r="G22" t="s">
+        <v>205</v>
+      </c>
+      <c r="H22" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" t="s">
+        <v>205</v>
+      </c>
+      <c r="J22" t="s">
+        <v>205</v>
+      </c>
+      <c r="K22" t="s">
+        <v>205</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="s">
+        <v>205</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
@@ -2744,6 +2912,30 @@
       <c r="F26" t="s">
         <v>205</v>
       </c>
+      <c r="G26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H26" t="s">
+        <v>205</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>205</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="s">
+        <v>205</v>
+      </c>
+      <c r="N26" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
@@ -2852,6 +3044,30 @@
       <c r="F29" t="s">
         <v>205</v>
       </c>
+      <c r="G29" t="s">
+        <v>205</v>
+      </c>
+      <c r="H29" t="s">
+        <v>205</v>
+      </c>
+      <c r="I29" t="s">
+        <v>205</v>
+      </c>
+      <c r="J29" t="s">
+        <v>205</v>
+      </c>
+      <c r="K29" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" t="s">
+        <v>205</v>
+      </c>
+      <c r="M29" t="s">
+        <v>205</v>
+      </c>
+      <c r="N29" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
@@ -3048,6 +3264,30 @@
       <c r="F34" t="s">
         <v>205</v>
       </c>
+      <c r="G34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H34" t="s">
+        <v>205</v>
+      </c>
+      <c r="I34" t="s">
+        <v>205</v>
+      </c>
+      <c r="J34" t="s">
+        <v>205</v>
+      </c>
+      <c r="K34" t="s">
+        <v>205</v>
+      </c>
+      <c r="L34" t="s">
+        <v>205</v>
+      </c>
+      <c r="M34" t="s">
+        <v>205</v>
+      </c>
+      <c r="N34" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
@@ -3156,6 +3396,30 @@
       <c r="F37" t="s">
         <v>205</v>
       </c>
+      <c r="G37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
+        <v>205</v>
+      </c>
+      <c r="K37" t="s">
+        <v>205</v>
+      </c>
+      <c r="L37" t="s">
+        <v>205</v>
+      </c>
+      <c r="M37" t="s">
+        <v>205</v>
+      </c>
+      <c r="N37" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
@@ -3220,6 +3484,30 @@
       <c r="F39" t="s">
         <v>205</v>
       </c>
+      <c r="G39" t="s">
+        <v>205</v>
+      </c>
+      <c r="H39" t="s">
+        <v>205</v>
+      </c>
+      <c r="I39" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" t="s">
+        <v>205</v>
+      </c>
+      <c r="L39" t="s">
+        <v>205</v>
+      </c>
+      <c r="M39" t="s">
+        <v>205</v>
+      </c>
+      <c r="N39" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="1">
@@ -3328,6 +3616,30 @@
       <c r="F42" t="s">
         <v>205</v>
       </c>
+      <c r="G42" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" t="s">
+        <v>205</v>
+      </c>
+      <c r="I42" t="s">
+        <v>205</v>
+      </c>
+      <c r="J42" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" t="s">
+        <v>205</v>
+      </c>
+      <c r="L42" t="s">
+        <v>205</v>
+      </c>
+      <c r="M42" t="s">
+        <v>205</v>
+      </c>
+      <c r="N42" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="1">
@@ -3392,6 +3704,30 @@
       <c r="F44" t="s">
         <v>205</v>
       </c>
+      <c r="G44" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" t="s">
+        <v>205</v>
+      </c>
+      <c r="I44" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" t="s">
+        <v>205</v>
+      </c>
+      <c r="K44" t="s">
+        <v>205</v>
+      </c>
+      <c r="L44" t="s">
+        <v>205</v>
+      </c>
+      <c r="M44" t="s">
+        <v>205</v>
+      </c>
+      <c r="N44" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="1">
@@ -3544,6 +3880,30 @@
       <c r="F48" t="s">
         <v>205</v>
       </c>
+      <c r="G48" t="s">
+        <v>205</v>
+      </c>
+      <c r="H48" t="s">
+        <v>205</v>
+      </c>
+      <c r="I48" t="s">
+        <v>205</v>
+      </c>
+      <c r="J48" t="s">
+        <v>205</v>
+      </c>
+      <c r="K48" t="s">
+        <v>205</v>
+      </c>
+      <c r="L48" t="s">
+        <v>205</v>
+      </c>
+      <c r="M48" t="s">
+        <v>205</v>
+      </c>
+      <c r="N48" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="1">
@@ -3564,6 +3924,30 @@
       <c r="F49" t="s">
         <v>205</v>
       </c>
+      <c r="G49" t="s">
+        <v>205</v>
+      </c>
+      <c r="H49" t="s">
+        <v>205</v>
+      </c>
+      <c r="I49" t="s">
+        <v>205</v>
+      </c>
+      <c r="J49" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" t="s">
+        <v>205</v>
+      </c>
+      <c r="L49" t="s">
+        <v>205</v>
+      </c>
+      <c r="M49" t="s">
+        <v>205</v>
+      </c>
+      <c r="N49" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="1">
@@ -3672,6 +4056,30 @@
       <c r="F52" t="s">
         <v>205</v>
       </c>
+      <c r="G52" t="s">
+        <v>205</v>
+      </c>
+      <c r="H52" t="s">
+        <v>205</v>
+      </c>
+      <c r="I52" t="s">
+        <v>205</v>
+      </c>
+      <c r="J52" t="s">
+        <v>205</v>
+      </c>
+      <c r="K52" t="s">
+        <v>205</v>
+      </c>
+      <c r="L52" t="s">
+        <v>205</v>
+      </c>
+      <c r="M52" t="s">
+        <v>205</v>
+      </c>
+      <c r="N52" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="1">
@@ -3692,6 +4100,30 @@
       <c r="F53" t="s">
         <v>205</v>
       </c>
+      <c r="G53" t="s">
+        <v>205</v>
+      </c>
+      <c r="H53" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" t="s">
+        <v>205</v>
+      </c>
+      <c r="J53" t="s">
+        <v>205</v>
+      </c>
+      <c r="K53" t="s">
+        <v>205</v>
+      </c>
+      <c r="L53" t="s">
+        <v>205</v>
+      </c>
+      <c r="M53" t="s">
+        <v>205</v>
+      </c>
+      <c r="N53" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="1">
@@ -3800,6 +4232,30 @@
       <c r="F56" t="s">
         <v>205</v>
       </c>
+      <c r="G56" t="s">
+        <v>205</v>
+      </c>
+      <c r="H56" t="s">
+        <v>205</v>
+      </c>
+      <c r="I56" t="s">
+        <v>205</v>
+      </c>
+      <c r="J56" t="s">
+        <v>205</v>
+      </c>
+      <c r="K56" t="s">
+        <v>205</v>
+      </c>
+      <c r="L56" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" t="s">
+        <v>205</v>
+      </c>
+      <c r="N56" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="1">
@@ -3908,6 +4364,30 @@
       <c r="F59" t="s">
         <v>205</v>
       </c>
+      <c r="G59" t="s">
+        <v>205</v>
+      </c>
+      <c r="H59" t="s">
+        <v>205</v>
+      </c>
+      <c r="I59" t="s">
+        <v>205</v>
+      </c>
+      <c r="J59" t="s">
+        <v>205</v>
+      </c>
+      <c r="K59" t="s">
+        <v>205</v>
+      </c>
+      <c r="L59" t="s">
+        <v>205</v>
+      </c>
+      <c r="M59" t="s">
+        <v>205</v>
+      </c>
+      <c r="N59" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="1">
@@ -4016,6 +4496,30 @@
       <c r="F62" t="s">
         <v>205</v>
       </c>
+      <c r="G62" t="s">
+        <v>205</v>
+      </c>
+      <c r="H62" t="s">
+        <v>205</v>
+      </c>
+      <c r="I62" t="s">
+        <v>205</v>
+      </c>
+      <c r="J62" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" t="s">
+        <v>205</v>
+      </c>
+      <c r="L62" t="s">
+        <v>205</v>
+      </c>
+      <c r="M62" t="s">
+        <v>205</v>
+      </c>
+      <c r="N62" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="1">
@@ -4168,6 +4672,30 @@
       <c r="F66" t="s">
         <v>205</v>
       </c>
+      <c r="G66" t="s">
+        <v>205</v>
+      </c>
+      <c r="H66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I66" t="s">
+        <v>205</v>
+      </c>
+      <c r="J66" t="s">
+        <v>205</v>
+      </c>
+      <c r="K66" t="s">
+        <v>205</v>
+      </c>
+      <c r="L66" t="s">
+        <v>205</v>
+      </c>
+      <c r="M66" t="s">
+        <v>205</v>
+      </c>
+      <c r="N66" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="1">
@@ -4188,6 +4716,30 @@
       <c r="F67" t="s">
         <v>205</v>
       </c>
+      <c r="G67" t="s">
+        <v>205</v>
+      </c>
+      <c r="H67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I67" t="s">
+        <v>205</v>
+      </c>
+      <c r="J67" t="s">
+        <v>205</v>
+      </c>
+      <c r="K67" t="s">
+        <v>205</v>
+      </c>
+      <c r="L67" t="s">
+        <v>205</v>
+      </c>
+      <c r="M67" t="s">
+        <v>205</v>
+      </c>
+      <c r="N67" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="1">
@@ -4296,6 +4848,30 @@
       <c r="F70" t="s">
         <v>205</v>
       </c>
+      <c r="G70" t="s">
+        <v>205</v>
+      </c>
+      <c r="H70" t="s">
+        <v>205</v>
+      </c>
+      <c r="I70" t="s">
+        <v>205</v>
+      </c>
+      <c r="J70" t="s">
+        <v>205</v>
+      </c>
+      <c r="K70" t="s">
+        <v>205</v>
+      </c>
+      <c r="L70" t="s">
+        <v>205</v>
+      </c>
+      <c r="M70" t="s">
+        <v>205</v>
+      </c>
+      <c r="N70" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="71" spans="1:14">
       <c r="A71" s="1">
@@ -4448,6 +5024,30 @@
       <c r="F74" t="s">
         <v>205</v>
       </c>
+      <c r="G74" t="s">
+        <v>205</v>
+      </c>
+      <c r="H74" t="s">
+        <v>205</v>
+      </c>
+      <c r="I74" t="s">
+        <v>205</v>
+      </c>
+      <c r="J74" t="s">
+        <v>205</v>
+      </c>
+      <c r="K74" t="s">
+        <v>205</v>
+      </c>
+      <c r="L74" t="s">
+        <v>205</v>
+      </c>
+      <c r="M74" t="s">
+        <v>205</v>
+      </c>
+      <c r="N74" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="75" spans="1:14">
       <c r="A75" s="1">
@@ -4468,6 +5068,30 @@
       <c r="F75" t="s">
         <v>205</v>
       </c>
+      <c r="G75" t="s">
+        <v>205</v>
+      </c>
+      <c r="H75" t="s">
+        <v>205</v>
+      </c>
+      <c r="I75" t="s">
+        <v>205</v>
+      </c>
+      <c r="J75" t="s">
+        <v>205</v>
+      </c>
+      <c r="K75" t="s">
+        <v>205</v>
+      </c>
+      <c r="L75" t="s">
+        <v>205</v>
+      </c>
+      <c r="M75" t="s">
+        <v>205</v>
+      </c>
+      <c r="N75" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="76" spans="1:14">
       <c r="A76" s="1">
@@ -4620,6 +5244,30 @@
       <c r="F79" t="s">
         <v>205</v>
       </c>
+      <c r="G79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H79" t="s">
+        <v>205</v>
+      </c>
+      <c r="I79" t="s">
+        <v>205</v>
+      </c>
+      <c r="J79" t="s">
+        <v>205</v>
+      </c>
+      <c r="K79" t="s">
+        <v>205</v>
+      </c>
+      <c r="L79" t="s">
+        <v>205</v>
+      </c>
+      <c r="M79" t="s">
+        <v>205</v>
+      </c>
+      <c r="N79" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" s="1">
@@ -4684,6 +5332,30 @@
       <c r="F81" t="s">
         <v>205</v>
       </c>
+      <c r="G81" t="s">
+        <v>205</v>
+      </c>
+      <c r="H81" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" t="s">
+        <v>205</v>
+      </c>
+      <c r="J81" t="s">
+        <v>205</v>
+      </c>
+      <c r="K81" t="s">
+        <v>205</v>
+      </c>
+      <c r="L81" t="s">
+        <v>205</v>
+      </c>
+      <c r="M81" t="s">
+        <v>205</v>
+      </c>
+      <c r="N81" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="82" spans="1:14">
       <c r="A82" s="1">
@@ -4704,6 +5376,30 @@
       <c r="F82" t="s">
         <v>205</v>
       </c>
+      <c r="G82" t="s">
+        <v>205</v>
+      </c>
+      <c r="H82" t="s">
+        <v>205</v>
+      </c>
+      <c r="I82" t="s">
+        <v>205</v>
+      </c>
+      <c r="J82" t="s">
+        <v>205</v>
+      </c>
+      <c r="K82" t="s">
+        <v>205</v>
+      </c>
+      <c r="L82" t="s">
+        <v>205</v>
+      </c>
+      <c r="M82" t="s">
+        <v>205</v>
+      </c>
+      <c r="N82" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="83" spans="1:14">
       <c r="A83" s="1">
@@ -4812,6 +5508,30 @@
       <c r="F85" t="s">
         <v>205</v>
       </c>
+      <c r="G85" t="s">
+        <v>205</v>
+      </c>
+      <c r="H85" t="s">
+        <v>205</v>
+      </c>
+      <c r="I85" t="s">
+        <v>205</v>
+      </c>
+      <c r="J85" t="s">
+        <v>205</v>
+      </c>
+      <c r="K85" t="s">
+        <v>205</v>
+      </c>
+      <c r="L85" t="s">
+        <v>205</v>
+      </c>
+      <c r="M85" t="s">
+        <v>205</v>
+      </c>
+      <c r="N85" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="86" spans="1:14">
       <c r="A86" s="1">
@@ -4876,6 +5596,30 @@
       <c r="F87" t="s">
         <v>205</v>
       </c>
+      <c r="G87" t="s">
+        <v>205</v>
+      </c>
+      <c r="H87" t="s">
+        <v>205</v>
+      </c>
+      <c r="I87" t="s">
+        <v>205</v>
+      </c>
+      <c r="J87" t="s">
+        <v>205</v>
+      </c>
+      <c r="K87" t="s">
+        <v>205</v>
+      </c>
+      <c r="L87" t="s">
+        <v>205</v>
+      </c>
+      <c r="M87" t="s">
+        <v>205</v>
+      </c>
+      <c r="N87" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="88" spans="1:14">
       <c r="A88" s="1">
@@ -5160,6 +5904,30 @@
       <c r="F94" t="s">
         <v>205</v>
       </c>
+      <c r="G94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H94" t="s">
+        <v>205</v>
+      </c>
+      <c r="I94" t="s">
+        <v>205</v>
+      </c>
+      <c r="J94" t="s">
+        <v>205</v>
+      </c>
+      <c r="K94" t="s">
+        <v>205</v>
+      </c>
+      <c r="L94" t="s">
+        <v>205</v>
+      </c>
+      <c r="M94" t="s">
+        <v>205</v>
+      </c>
+      <c r="N94" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="95" spans="1:14">
       <c r="A95" s="1">
@@ -5180,6 +5948,30 @@
       <c r="F95" t="s">
         <v>205</v>
       </c>
+      <c r="G95" t="s">
+        <v>205</v>
+      </c>
+      <c r="H95" t="s">
+        <v>205</v>
+      </c>
+      <c r="I95" t="s">
+        <v>205</v>
+      </c>
+      <c r="J95" t="s">
+        <v>205</v>
+      </c>
+      <c r="K95" t="s">
+        <v>205</v>
+      </c>
+      <c r="L95" t="s">
+        <v>205</v>
+      </c>
+      <c r="M95" t="s">
+        <v>205</v>
+      </c>
+      <c r="N95" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="96" spans="1:14">
       <c r="A96" s="1">
@@ -5244,6 +6036,30 @@
       <c r="F97" t="s">
         <v>205</v>
       </c>
+      <c r="G97" t="s">
+        <v>205</v>
+      </c>
+      <c r="H97" t="s">
+        <v>205</v>
+      </c>
+      <c r="I97" t="s">
+        <v>205</v>
+      </c>
+      <c r="J97" t="s">
+        <v>205</v>
+      </c>
+      <c r="K97" t="s">
+        <v>205</v>
+      </c>
+      <c r="L97" t="s">
+        <v>205</v>
+      </c>
+      <c r="M97" t="s">
+        <v>205</v>
+      </c>
+      <c r="N97" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="98" spans="1:14">
       <c r="A98" s="1">
@@ -5264,6 +6080,30 @@
       <c r="F98" t="s">
         <v>205</v>
       </c>
+      <c r="G98" t="s">
+        <v>205</v>
+      </c>
+      <c r="H98" t="s">
+        <v>205</v>
+      </c>
+      <c r="I98" t="s">
+        <v>205</v>
+      </c>
+      <c r="J98" t="s">
+        <v>205</v>
+      </c>
+      <c r="K98" t="s">
+        <v>205</v>
+      </c>
+      <c r="L98" t="s">
+        <v>205</v>
+      </c>
+      <c r="M98" t="s">
+        <v>205</v>
+      </c>
+      <c r="N98" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="99" spans="1:14">
       <c r="A99" s="1">
@@ -5372,6 +6212,30 @@
       <c r="F101" t="s">
         <v>205</v>
       </c>
+      <c r="G101" t="s">
+        <v>205</v>
+      </c>
+      <c r="H101" t="s">
+        <v>205</v>
+      </c>
+      <c r="I101" t="s">
+        <v>205</v>
+      </c>
+      <c r="J101" t="s">
+        <v>205</v>
+      </c>
+      <c r="K101" t="s">
+        <v>205</v>
+      </c>
+      <c r="L101" t="s">
+        <v>205</v>
+      </c>
+      <c r="M101" t="s">
+        <v>205</v>
+      </c>
+      <c r="N101" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="102" spans="1:14">
       <c r="A102" s="1">
@@ -5480,6 +6344,30 @@
       <c r="F104" t="s">
         <v>205</v>
       </c>
+      <c r="G104" t="s">
+        <v>205</v>
+      </c>
+      <c r="H104" t="s">
+        <v>205</v>
+      </c>
+      <c r="I104" t="s">
+        <v>205</v>
+      </c>
+      <c r="J104" t="s">
+        <v>205</v>
+      </c>
+      <c r="K104" t="s">
+        <v>205</v>
+      </c>
+      <c r="L104" t="s">
+        <v>205</v>
+      </c>
+      <c r="M104" t="s">
+        <v>205</v>
+      </c>
+      <c r="N104" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="105" spans="1:14">
       <c r="A105" s="1">
@@ -5588,6 +6476,30 @@
       <c r="F107" t="s">
         <v>205</v>
       </c>
+      <c r="G107" t="s">
+        <v>205</v>
+      </c>
+      <c r="H107" t="s">
+        <v>205</v>
+      </c>
+      <c r="I107" t="s">
+        <v>205</v>
+      </c>
+      <c r="J107" t="s">
+        <v>205</v>
+      </c>
+      <c r="K107" t="s">
+        <v>205</v>
+      </c>
+      <c r="L107" t="s">
+        <v>205</v>
+      </c>
+      <c r="M107" t="s">
+        <v>205</v>
+      </c>
+      <c r="N107" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="108" spans="1:14">
       <c r="A108" s="1">
@@ -5608,6 +6520,30 @@
       <c r="F108" t="s">
         <v>205</v>
       </c>
+      <c r="G108" t="s">
+        <v>205</v>
+      </c>
+      <c r="H108" t="s">
+        <v>205</v>
+      </c>
+      <c r="I108" t="s">
+        <v>205</v>
+      </c>
+      <c r="J108" t="s">
+        <v>205</v>
+      </c>
+      <c r="K108" t="s">
+        <v>205</v>
+      </c>
+      <c r="L108" t="s">
+        <v>205</v>
+      </c>
+      <c r="M108" t="s">
+        <v>205</v>
+      </c>
+      <c r="N108" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="109" spans="1:14">
       <c r="A109" s="1">
@@ -5628,6 +6564,30 @@
       <c r="F109" t="s">
         <v>205</v>
       </c>
+      <c r="G109" t="s">
+        <v>205</v>
+      </c>
+      <c r="H109" t="s">
+        <v>205</v>
+      </c>
+      <c r="I109" t="s">
+        <v>205</v>
+      </c>
+      <c r="J109" t="s">
+        <v>205</v>
+      </c>
+      <c r="K109" t="s">
+        <v>205</v>
+      </c>
+      <c r="L109" t="s">
+        <v>205</v>
+      </c>
+      <c r="M109" t="s">
+        <v>205</v>
+      </c>
+      <c r="N109" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="110" spans="1:14">
       <c r="A110" s="1">
@@ -5692,6 +6652,30 @@
       <c r="F111" t="s">
         <v>205</v>
       </c>
+      <c r="G111" t="s">
+        <v>205</v>
+      </c>
+      <c r="H111" t="s">
+        <v>205</v>
+      </c>
+      <c r="I111" t="s">
+        <v>205</v>
+      </c>
+      <c r="J111" t="s">
+        <v>205</v>
+      </c>
+      <c r="K111" t="s">
+        <v>205</v>
+      </c>
+      <c r="L111" t="s">
+        <v>205</v>
+      </c>
+      <c r="M111" t="s">
+        <v>205</v>
+      </c>
+      <c r="N111" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="112" spans="1:14">
       <c r="A112" s="1">
@@ -5756,6 +6740,30 @@
       <c r="F113" t="s">
         <v>205</v>
       </c>
+      <c r="G113" t="s">
+        <v>205</v>
+      </c>
+      <c r="H113" t="s">
+        <v>205</v>
+      </c>
+      <c r="I113" t="s">
+        <v>205</v>
+      </c>
+      <c r="J113" t="s">
+        <v>205</v>
+      </c>
+      <c r="K113" t="s">
+        <v>205</v>
+      </c>
+      <c r="L113" t="s">
+        <v>205</v>
+      </c>
+      <c r="M113" t="s">
+        <v>205</v>
+      </c>
+      <c r="N113" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="114" spans="1:14">
       <c r="A114" s="1">
@@ -5820,6 +6828,30 @@
       <c r="F115" t="s">
         <v>205</v>
       </c>
+      <c r="G115" t="s">
+        <v>205</v>
+      </c>
+      <c r="H115" t="s">
+        <v>205</v>
+      </c>
+      <c r="I115" t="s">
+        <v>205</v>
+      </c>
+      <c r="J115" t="s">
+        <v>205</v>
+      </c>
+      <c r="K115" t="s">
+        <v>205</v>
+      </c>
+      <c r="L115" t="s">
+        <v>205</v>
+      </c>
+      <c r="M115" t="s">
+        <v>205</v>
+      </c>
+      <c r="N115" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="116" spans="1:14">
       <c r="A116" s="1">
@@ -5928,6 +6960,30 @@
       <c r="F118" t="s">
         <v>205</v>
       </c>
+      <c r="G118" t="s">
+        <v>205</v>
+      </c>
+      <c r="H118" t="s">
+        <v>205</v>
+      </c>
+      <c r="I118" t="s">
+        <v>205</v>
+      </c>
+      <c r="J118" t="s">
+        <v>205</v>
+      </c>
+      <c r="K118" t="s">
+        <v>205</v>
+      </c>
+      <c r="L118" t="s">
+        <v>205</v>
+      </c>
+      <c r="M118" t="s">
+        <v>205</v>
+      </c>
+      <c r="N118" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="119" spans="1:14">
       <c r="A119" s="1">
@@ -6036,6 +7092,30 @@
       <c r="F121" t="s">
         <v>205</v>
       </c>
+      <c r="G121" t="s">
+        <v>205</v>
+      </c>
+      <c r="H121" t="s">
+        <v>205</v>
+      </c>
+      <c r="I121" t="s">
+        <v>205</v>
+      </c>
+      <c r="J121" t="s">
+        <v>205</v>
+      </c>
+      <c r="K121" t="s">
+        <v>205</v>
+      </c>
+      <c r="L121" t="s">
+        <v>205</v>
+      </c>
+      <c r="M121" t="s">
+        <v>205</v>
+      </c>
+      <c r="N121" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="122" spans="1:14">
       <c r="A122" s="1">
@@ -6056,6 +7136,30 @@
       <c r="F122" t="s">
         <v>205</v>
       </c>
+      <c r="G122" t="s">
+        <v>205</v>
+      </c>
+      <c r="H122" t="s">
+        <v>205</v>
+      </c>
+      <c r="I122" t="s">
+        <v>205</v>
+      </c>
+      <c r="J122" t="s">
+        <v>205</v>
+      </c>
+      <c r="K122" t="s">
+        <v>205</v>
+      </c>
+      <c r="L122" t="s">
+        <v>205</v>
+      </c>
+      <c r="M122" t="s">
+        <v>205</v>
+      </c>
+      <c r="N122" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="123" spans="1:14">
       <c r="A123" s="1">
@@ -6208,6 +7312,30 @@
       <c r="F126" t="s">
         <v>205</v>
       </c>
+      <c r="G126" t="s">
+        <v>205</v>
+      </c>
+      <c r="H126" t="s">
+        <v>205</v>
+      </c>
+      <c r="I126" t="s">
+        <v>205</v>
+      </c>
+      <c r="J126" t="s">
+        <v>205</v>
+      </c>
+      <c r="K126" t="s">
+        <v>205</v>
+      </c>
+      <c r="L126" t="s">
+        <v>205</v>
+      </c>
+      <c r="M126" t="s">
+        <v>205</v>
+      </c>
+      <c r="N126" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="127" spans="1:14">
       <c r="A127" s="1">
@@ -6228,6 +7356,30 @@
       <c r="F127" t="s">
         <v>205</v>
       </c>
+      <c r="G127" t="s">
+        <v>205</v>
+      </c>
+      <c r="H127" t="s">
+        <v>205</v>
+      </c>
+      <c r="I127" t="s">
+        <v>205</v>
+      </c>
+      <c r="J127" t="s">
+        <v>205</v>
+      </c>
+      <c r="K127" t="s">
+        <v>205</v>
+      </c>
+      <c r="L127" t="s">
+        <v>205</v>
+      </c>
+      <c r="M127" t="s">
+        <v>205</v>
+      </c>
+      <c r="N127" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="128" spans="1:14">
       <c r="A128" s="1">
@@ -6468,6 +7620,30 @@
       <c r="F133" t="s">
         <v>205</v>
       </c>
+      <c r="G133" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" t="s">
+        <v>205</v>
+      </c>
+      <c r="I133" t="s">
+        <v>205</v>
+      </c>
+      <c r="J133" t="s">
+        <v>205</v>
+      </c>
+      <c r="K133" t="s">
+        <v>205</v>
+      </c>
+      <c r="L133" t="s">
+        <v>205</v>
+      </c>
+      <c r="M133" t="s">
+        <v>205</v>
+      </c>
+      <c r="N133" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="134" spans="1:14">
       <c r="A134" s="1">
@@ -6488,6 +7664,30 @@
       <c r="F134" t="s">
         <v>205</v>
       </c>
+      <c r="G134" t="s">
+        <v>205</v>
+      </c>
+      <c r="H134" t="s">
+        <v>205</v>
+      </c>
+      <c r="I134" t="s">
+        <v>205</v>
+      </c>
+      <c r="J134" t="s">
+        <v>205</v>
+      </c>
+      <c r="K134" t="s">
+        <v>205</v>
+      </c>
+      <c r="L134" t="s">
+        <v>205</v>
+      </c>
+      <c r="M134" t="s">
+        <v>205</v>
+      </c>
+      <c r="N134" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="135" spans="1:14">
       <c r="A135" s="1">
@@ -6640,6 +7840,30 @@
       <c r="F138" t="s">
         <v>205</v>
       </c>
+      <c r="G138" t="s">
+        <v>205</v>
+      </c>
+      <c r="H138" t="s">
+        <v>205</v>
+      </c>
+      <c r="I138" t="s">
+        <v>205</v>
+      </c>
+      <c r="J138" t="s">
+        <v>205</v>
+      </c>
+      <c r="K138" t="s">
+        <v>205</v>
+      </c>
+      <c r="L138" t="s">
+        <v>205</v>
+      </c>
+      <c r="M138" t="s">
+        <v>205</v>
+      </c>
+      <c r="N138" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="139" spans="1:14">
       <c r="A139" s="1">
@@ -6792,6 +8016,30 @@
       <c r="F142" t="s">
         <v>205</v>
       </c>
+      <c r="G142" t="s">
+        <v>205</v>
+      </c>
+      <c r="H142" t="s">
+        <v>205</v>
+      </c>
+      <c r="I142" t="s">
+        <v>205</v>
+      </c>
+      <c r="J142" t="s">
+        <v>205</v>
+      </c>
+      <c r="K142" t="s">
+        <v>205</v>
+      </c>
+      <c r="L142" t="s">
+        <v>205</v>
+      </c>
+      <c r="M142" t="s">
+        <v>205</v>
+      </c>
+      <c r="N142" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="143" spans="1:14">
       <c r="A143" s="1">
@@ -6856,6 +8104,30 @@
       <c r="F144" t="s">
         <v>205</v>
       </c>
+      <c r="G144" t="s">
+        <v>205</v>
+      </c>
+      <c r="H144" t="s">
+        <v>205</v>
+      </c>
+      <c r="I144" t="s">
+        <v>205</v>
+      </c>
+      <c r="J144" t="s">
+        <v>205</v>
+      </c>
+      <c r="K144" t="s">
+        <v>205</v>
+      </c>
+      <c r="L144" t="s">
+        <v>205</v>
+      </c>
+      <c r="M144" t="s">
+        <v>205</v>
+      </c>
+      <c r="N144" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" s="1">
@@ -7140,6 +8412,30 @@
       <c r="F151" t="s">
         <v>205</v>
       </c>
+      <c r="G151" t="s">
+        <v>205</v>
+      </c>
+      <c r="H151" t="s">
+        <v>205</v>
+      </c>
+      <c r="I151" t="s">
+        <v>205</v>
+      </c>
+      <c r="J151" t="s">
+        <v>205</v>
+      </c>
+      <c r="K151" t="s">
+        <v>205</v>
+      </c>
+      <c r="L151" t="s">
+        <v>205</v>
+      </c>
+      <c r="M151" t="s">
+        <v>205</v>
+      </c>
+      <c r="N151" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" s="1">
@@ -7336,6 +8632,30 @@
       <c r="F156" t="s">
         <v>205</v>
       </c>
+      <c r="G156" t="s">
+        <v>205</v>
+      </c>
+      <c r="H156" t="s">
+        <v>205</v>
+      </c>
+      <c r="I156" t="s">
+        <v>205</v>
+      </c>
+      <c r="J156" t="s">
+        <v>205</v>
+      </c>
+      <c r="K156" t="s">
+        <v>205</v>
+      </c>
+      <c r="L156" t="s">
+        <v>205</v>
+      </c>
+      <c r="M156" t="s">
+        <v>205</v>
+      </c>
+      <c r="N156" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" s="1">
@@ -7444,6 +8764,30 @@
       <c r="F159" t="s">
         <v>205</v>
       </c>
+      <c r="G159" t="s">
+        <v>205</v>
+      </c>
+      <c r="H159" t="s">
+        <v>205</v>
+      </c>
+      <c r="I159" t="s">
+        <v>205</v>
+      </c>
+      <c r="J159" t="s">
+        <v>205</v>
+      </c>
+      <c r="K159" t="s">
+        <v>205</v>
+      </c>
+      <c r="L159" t="s">
+        <v>205</v>
+      </c>
+      <c r="M159" t="s">
+        <v>205</v>
+      </c>
+      <c r="N159" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" s="1">
@@ -7684,6 +9028,30 @@
       <c r="F165" t="s">
         <v>205</v>
       </c>
+      <c r="G165" t="s">
+        <v>205</v>
+      </c>
+      <c r="H165" t="s">
+        <v>205</v>
+      </c>
+      <c r="I165" t="s">
+        <v>205</v>
+      </c>
+      <c r="J165" t="s">
+        <v>205</v>
+      </c>
+      <c r="K165" t="s">
+        <v>205</v>
+      </c>
+      <c r="L165" t="s">
+        <v>205</v>
+      </c>
+      <c r="M165" t="s">
+        <v>205</v>
+      </c>
+      <c r="N165" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" s="1">
@@ -7792,6 +9160,30 @@
       <c r="F168" t="s">
         <v>205</v>
       </c>
+      <c r="G168" t="s">
+        <v>205</v>
+      </c>
+      <c r="H168" t="s">
+        <v>205</v>
+      </c>
+      <c r="I168" t="s">
+        <v>205</v>
+      </c>
+      <c r="J168" t="s">
+        <v>205</v>
+      </c>
+      <c r="K168" t="s">
+        <v>205</v>
+      </c>
+      <c r="L168" t="s">
+        <v>205</v>
+      </c>
+      <c r="M168" t="s">
+        <v>205</v>
+      </c>
+      <c r="N168" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" s="1">
@@ -7856,6 +9248,30 @@
       <c r="F170" t="s">
         <v>205</v>
       </c>
+      <c r="G170" t="s">
+        <v>205</v>
+      </c>
+      <c r="H170" t="s">
+        <v>205</v>
+      </c>
+      <c r="I170" t="s">
+        <v>205</v>
+      </c>
+      <c r="J170" t="s">
+        <v>205</v>
+      </c>
+      <c r="K170" t="s">
+        <v>205</v>
+      </c>
+      <c r="L170" t="s">
+        <v>205</v>
+      </c>
+      <c r="M170" t="s">
+        <v>205</v>
+      </c>
+      <c r="N170" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="171" spans="1:14">
       <c r="A171" s="1">
@@ -8008,6 +9424,30 @@
       <c r="F174" t="s">
         <v>205</v>
       </c>
+      <c r="G174" t="s">
+        <v>205</v>
+      </c>
+      <c r="H174" t="s">
+        <v>205</v>
+      </c>
+      <c r="I174" t="s">
+        <v>205</v>
+      </c>
+      <c r="J174" t="s">
+        <v>205</v>
+      </c>
+      <c r="K174" t="s">
+        <v>205</v>
+      </c>
+      <c r="L174" t="s">
+        <v>205</v>
+      </c>
+      <c r="M174" t="s">
+        <v>205</v>
+      </c>
+      <c r="N174" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" s="1">
@@ -8204,6 +9644,30 @@
       <c r="F179" t="s">
         <v>205</v>
       </c>
+      <c r="G179" t="s">
+        <v>205</v>
+      </c>
+      <c r="H179" t="s">
+        <v>205</v>
+      </c>
+      <c r="I179" t="s">
+        <v>205</v>
+      </c>
+      <c r="J179" t="s">
+        <v>205</v>
+      </c>
+      <c r="K179" t="s">
+        <v>205</v>
+      </c>
+      <c r="L179" t="s">
+        <v>205</v>
+      </c>
+      <c r="M179" t="s">
+        <v>205</v>
+      </c>
+      <c r="N179" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="180" spans="1:14">
       <c r="A180" s="1">
@@ -8400,6 +9864,30 @@
       <c r="F184" t="s">
         <v>205</v>
       </c>
+      <c r="G184" t="s">
+        <v>205</v>
+      </c>
+      <c r="H184" t="s">
+        <v>205</v>
+      </c>
+      <c r="I184" t="s">
+        <v>205</v>
+      </c>
+      <c r="J184" t="s">
+        <v>205</v>
+      </c>
+      <c r="K184" t="s">
+        <v>205</v>
+      </c>
+      <c r="L184" t="s">
+        <v>205</v>
+      </c>
+      <c r="M184" t="s">
+        <v>205</v>
+      </c>
+      <c r="N184" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="185" spans="1:14">
       <c r="A185" s="1">
@@ -8508,6 +9996,30 @@
       <c r="F187" t="s">
         <v>205</v>
       </c>
+      <c r="G187" t="s">
+        <v>205</v>
+      </c>
+      <c r="H187" t="s">
+        <v>205</v>
+      </c>
+      <c r="I187" t="s">
+        <v>205</v>
+      </c>
+      <c r="J187" t="s">
+        <v>205</v>
+      </c>
+      <c r="K187" t="s">
+        <v>205</v>
+      </c>
+      <c r="L187" t="s">
+        <v>205</v>
+      </c>
+      <c r="M187" t="s">
+        <v>205</v>
+      </c>
+      <c r="N187" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="188" spans="1:14">
       <c r="A188" s="1">
@@ -8570,6 +10082,30 @@
         <v>1</v>
       </c>
       <c r="F189" t="s">
+        <v>205</v>
+      </c>
+      <c r="G189" t="s">
+        <v>205</v>
+      </c>
+      <c r="H189" t="s">
+        <v>205</v>
+      </c>
+      <c r="I189" t="s">
+        <v>205</v>
+      </c>
+      <c r="J189" t="s">
+        <v>205</v>
+      </c>
+      <c r="K189" t="s">
+        <v>205</v>
+      </c>
+      <c r="L189" t="s">
+        <v>205</v>
+      </c>
+      <c r="M189" t="s">
+        <v>205</v>
+      </c>
+      <c r="N189" t="s">
         <v>205</v>
       </c>
     </row>

--- a/sequences/14_retrieval_1.xlsx
+++ b/sequences/14_retrieval_1.xlsx
@@ -55,580 +55,580 @@
     <t>type4</t>
   </si>
   <si>
+    <t>wellen</t>
+  </si>
+  <si>
+    <t>arten</t>
+  </si>
+  <si>
+    <t>wehren</t>
+  </si>
+  <si>
+    <t>gelten</t>
+  </si>
+  <si>
+    <t>drohen</t>
+  </si>
+  <si>
+    <t>platzen</t>
+  </si>
+  <si>
     <t>wehtun</t>
   </si>
   <si>
-    <t>schicken</t>
-  </si>
-  <si>
-    <t>sammeln</t>
-  </si>
-  <si>
-    <t>binden</t>
-  </si>
-  <si>
-    <t>checken</t>
-  </si>
-  <si>
-    <t>drohen</t>
+    <t>boxen</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>helfen</t>
+  </si>
+  <si>
+    <t>feuern</t>
+  </si>
+  <si>
+    <t>machen</t>
+  </si>
+  <si>
+    <t>jubeln</t>
+  </si>
+  <si>
+    <t>streichen</t>
+  </si>
+  <si>
+    <t>spüren</t>
+  </si>
+  <si>
+    <t>klettern</t>
+  </si>
+  <si>
+    <t>stehlen</t>
+  </si>
+  <si>
+    <t>leeren</t>
+  </si>
+  <si>
+    <t>leiden</t>
+  </si>
+  <si>
+    <t>tropfen</t>
+  </si>
+  <si>
+    <t>passen</t>
+  </si>
+  <si>
+    <t>saufen</t>
+  </si>
+  <si>
+    <t>dienen</t>
+  </si>
+  <si>
+    <t>geben</t>
+  </si>
+  <si>
+    <t>regeln</t>
+  </si>
+  <si>
+    <t>fällen</t>
+  </si>
+  <si>
+    <t>ändern</t>
+  </si>
+  <si>
+    <t>küssen</t>
+  </si>
+  <si>
+    <t>mögen</t>
+  </si>
+  <si>
+    <t>irren</t>
+  </si>
+  <si>
+    <t>quälen</t>
+  </si>
+  <si>
+    <t>lockern</t>
+  </si>
+  <si>
+    <t>narren</t>
+  </si>
+  <si>
+    <t>greifen</t>
+  </si>
+  <si>
+    <t>klingen</t>
+  </si>
+  <si>
+    <t>schämen</t>
+  </si>
+  <si>
+    <t>wachsen</t>
+  </si>
+  <si>
+    <t>scheiden</t>
+  </si>
+  <si>
+    <t>gründen</t>
+  </si>
+  <si>
+    <t>fangen</t>
+  </si>
+  <si>
+    <t>wahren</t>
+  </si>
+  <si>
+    <t>flehen</t>
+  </si>
+  <si>
+    <t>reiten</t>
+  </si>
+  <si>
+    <t>zielen</t>
+  </si>
+  <si>
+    <t>räumen</t>
+  </si>
+  <si>
+    <t>fallen</t>
+  </si>
+  <si>
+    <t>läuten</t>
+  </si>
+  <si>
+    <t>laufen</t>
+  </si>
+  <si>
+    <t>schlucken</t>
+  </si>
+  <si>
+    <t>sorgen</t>
+  </si>
+  <si>
+    <t>lösen</t>
+  </si>
+  <si>
+    <t>kennen</t>
+  </si>
+  <si>
+    <t>schreiten</t>
+  </si>
+  <si>
+    <t>kümmern</t>
+  </si>
+  <si>
+    <t>rücken</t>
+  </si>
+  <si>
+    <t>bauen</t>
+  </si>
+  <si>
+    <t>kehren</t>
+  </si>
+  <si>
+    <t>albern</t>
+  </si>
+  <si>
+    <t>reizen</t>
+  </si>
+  <si>
+    <t>wüten</t>
+  </si>
+  <si>
+    <t>ruhen</t>
+  </si>
+  <si>
+    <t>pflanzen</t>
+  </si>
+  <si>
+    <t>münzen</t>
+  </si>
+  <si>
+    <t>heben</t>
+  </si>
+  <si>
+    <t>kranken</t>
+  </si>
+  <si>
+    <t>stechen</t>
+  </si>
+  <si>
+    <t>scheitern</t>
+  </si>
+  <si>
+    <t>bitten</t>
+  </si>
+  <si>
+    <t>stoppen</t>
+  </si>
+  <si>
+    <t>schwören</t>
+  </si>
+  <si>
+    <t>jagen</t>
+  </si>
+  <si>
+    <t>hauen</t>
+  </si>
+  <si>
+    <t>beißen</t>
+  </si>
+  <si>
+    <t>tauschen</t>
+  </si>
+  <si>
+    <t>trauen</t>
+  </si>
+  <si>
+    <t>wenden</t>
+  </si>
+  <si>
+    <t>fischen</t>
+  </si>
+  <si>
+    <t>leisten</t>
+  </si>
+  <si>
+    <t>rufen</t>
+  </si>
+  <si>
+    <t>proben</t>
+  </si>
+  <si>
+    <t>fragen</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>siegen</t>
+  </si>
+  <si>
+    <t>lehnen</t>
+  </si>
+  <si>
+    <t>schulden</t>
+  </si>
+  <si>
+    <t>leugnen</t>
+  </si>
+  <si>
+    <t>tollen</t>
+  </si>
+  <si>
+    <t>liegen</t>
+  </si>
+  <si>
+    <t>graben</t>
+  </si>
+  <si>
+    <t>werfen</t>
+  </si>
+  <si>
+    <t>schenken</t>
+  </si>
+  <si>
+    <t>trennen</t>
+  </si>
+  <si>
+    <t>meistern</t>
+  </si>
+  <si>
+    <t>hacken</t>
+  </si>
+  <si>
+    <t>lesen</t>
+  </si>
+  <si>
+    <t>dauern</t>
+  </si>
+  <si>
+    <t>zahlen</t>
+  </si>
+  <si>
+    <t>töten</t>
+  </si>
+  <si>
+    <t>backen</t>
+  </si>
+  <si>
+    <t>bilden</t>
+  </si>
+  <si>
+    <t>rasen</t>
+  </si>
+  <si>
+    <t>heilen</t>
+  </si>
+  <si>
+    <t>stören</t>
+  </si>
+  <si>
+    <t>spielen</t>
+  </si>
+  <si>
+    <t>runden</t>
+  </si>
+  <si>
+    <t>baden</t>
+  </si>
+  <si>
+    <t>bleiben</t>
+  </si>
+  <si>
+    <t>duschen</t>
+  </si>
+  <si>
+    <t>seufzen</t>
+  </si>
+  <si>
+    <t>husten</t>
+  </si>
+  <si>
+    <t>warnen</t>
+  </si>
+  <si>
+    <t>gleichen</t>
+  </si>
+  <si>
+    <t>schmecken</t>
+  </si>
+  <si>
+    <t>fordern</t>
+  </si>
+  <si>
+    <t>kosten</t>
+  </si>
+  <si>
+    <t>scheinen</t>
+  </si>
+  <si>
+    <t>nennen</t>
+  </si>
+  <si>
+    <t>zeigen</t>
+  </si>
+  <si>
+    <t>malen</t>
+  </si>
+  <si>
+    <t>wehen</t>
+  </si>
+  <si>
+    <t>lächeln</t>
+  </si>
+  <si>
+    <t>altern</t>
+  </si>
+  <si>
+    <t>werden</t>
+  </si>
+  <si>
+    <t>betteln</t>
+  </si>
+  <si>
+    <t>süßen</t>
+  </si>
+  <si>
+    <t>reisen</t>
+  </si>
+  <si>
+    <t>äußern</t>
+  </si>
+  <si>
+    <t>weichen</t>
+  </si>
+  <si>
+    <t>spinnen</t>
+  </si>
+  <si>
+    <t>kichern</t>
+  </si>
+  <si>
+    <t>schwächen</t>
+  </si>
+  <si>
+    <t>zeichnen</t>
+  </si>
+  <si>
+    <t>knurren</t>
   </si>
   <si>
     <t>drehen</t>
   </si>
   <si>
-    <t>spüren</t>
-  </si>
-  <si>
-    <t>schmecken</t>
-  </si>
-  <si>
-    <t>husten</t>
-  </si>
-  <si>
-    <t>wüten</t>
-  </si>
-  <si>
-    <t>rasen</t>
-  </si>
-  <si>
-    <t>deuten</t>
-  </si>
-  <si>
-    <t>heben</t>
-  </si>
-  <si>
-    <t>spielen</t>
-  </si>
-  <si>
-    <t>fliehen</t>
-  </si>
-  <si>
-    <t>nehmen</t>
-  </si>
-  <si>
-    <t>wetten</t>
-  </si>
-  <si>
-    <t>schwören</t>
-  </si>
-  <si>
-    <t>hoffen</t>
+    <t>fahren</t>
+  </si>
+  <si>
+    <t>pfeifen</t>
+  </si>
+  <si>
+    <t>stürzen</t>
+  </si>
+  <si>
+    <t>wirken</t>
+  </si>
+  <si>
+    <t>stammen</t>
+  </si>
+  <si>
+    <t>heulen</t>
+  </si>
+  <si>
+    <t>schütteln</t>
+  </si>
+  <si>
+    <t>enden</t>
+  </si>
+  <si>
+    <t>strahlen</t>
+  </si>
+  <si>
+    <t>hören</t>
+  </si>
+  <si>
+    <t>grüßen</t>
+  </si>
+  <si>
+    <t>wundern</t>
+  </si>
+  <si>
+    <t>decken</t>
+  </si>
+  <si>
+    <t>sperren</t>
+  </si>
+  <si>
+    <t>sterben</t>
+  </si>
+  <si>
+    <t>spenden</t>
+  </si>
+  <si>
+    <t>bergen</t>
+  </si>
+  <si>
+    <t>bellen</t>
+  </si>
+  <si>
+    <t>folgen</t>
+  </si>
+  <si>
+    <t>planen</t>
+  </si>
+  <si>
+    <t>drucken</t>
+  </si>
+  <si>
+    <t>sinken</t>
+  </si>
+  <si>
+    <t>treiben</t>
+  </si>
+  <si>
+    <t>streifen</t>
+  </si>
+  <si>
+    <t>stecken</t>
+  </si>
+  <si>
+    <t>feiern</t>
+  </si>
+  <si>
+    <t>ärgern</t>
+  </si>
+  <si>
+    <t>freuen</t>
+  </si>
+  <si>
+    <t>fließen</t>
+  </si>
+  <si>
+    <t>zählen</t>
+  </si>
+  <si>
+    <t>filmen</t>
+  </si>
+  <si>
+    <t>flüchten</t>
+  </si>
+  <si>
+    <t>füllen</t>
+  </si>
+  <si>
+    <t>schwingen</t>
+  </si>
+  <si>
+    <t>tragen</t>
+  </si>
+  <si>
+    <t>ehren</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>brauchen</t>
+  </si>
+  <si>
+    <t>sparen</t>
+  </si>
+  <si>
+    <t>loben</t>
+  </si>
+  <si>
+    <t>formen</t>
+  </si>
+  <si>
+    <t>lügen</t>
   </si>
   <si>
     <t>mauern</t>
   </si>
   <si>
-    <t>hauen</t>
+    <t>wagen</t>
   </si>
   <si>
     <t>biegen</t>
   </si>
   <si>
-    <t>pflegen</t>
-  </si>
-  <si>
-    <t>fehlen</t>
-  </si>
-  <si>
-    <t>formen</t>
-  </si>
-  <si>
-    <t>lächeln</t>
-  </si>
-  <si>
-    <t>plaudern</t>
-  </si>
-  <si>
-    <t>antun</t>
-  </si>
-  <si>
-    <t>krachen</t>
-  </si>
-  <si>
-    <t>gelten</t>
-  </si>
-  <si>
-    <t>grenzen</t>
-  </si>
-  <si>
-    <t>beten</t>
-  </si>
-  <si>
-    <t>posten</t>
+    <t>sprengen</t>
   </si>
   <si>
     <t>achten</t>
   </si>
   <si>
-    <t>eignen</t>
-  </si>
-  <si>
-    <t>füllen</t>
-  </si>
-  <si>
-    <t>schlampen</t>
-  </si>
-  <si>
-    <t>fließen</t>
-  </si>
-  <si>
-    <t>küssen</t>
-  </si>
-  <si>
-    <t>wagen</t>
-  </si>
-  <si>
-    <t>quellen</t>
-  </si>
-  <si>
-    <t>leiten</t>
-  </si>
-  <si>
-    <t>mieten</t>
-  </si>
-  <si>
-    <t>hacken</t>
-  </si>
-  <si>
-    <t>fühlen</t>
-  </si>
-  <si>
-    <t>schließen</t>
-  </si>
-  <si>
-    <t>ahnen</t>
-  </si>
-  <si>
-    <t>bleiben</t>
-  </si>
-  <si>
-    <t>angeln</t>
-  </si>
-  <si>
-    <t>kämpfen</t>
-  </si>
-  <si>
-    <t>landen</t>
-  </si>
-  <si>
-    <t>stoßen</t>
-  </si>
-  <si>
-    <t>prüfen</t>
-  </si>
-  <si>
-    <t>läuten</t>
-  </si>
-  <si>
-    <t>segeln</t>
-  </si>
-  <si>
-    <t>langen</t>
-  </si>
-  <si>
-    <t>regeln</t>
-  </si>
-  <si>
-    <t>öffnen</t>
-  </si>
-  <si>
-    <t>wählen</t>
-  </si>
-  <si>
-    <t>boxen</t>
-  </si>
-  <si>
-    <t>sondern</t>
-  </si>
-  <si>
-    <t>wecken</t>
-  </si>
-  <si>
-    <t>wenden</t>
-  </si>
-  <si>
-    <t>bomben</t>
-  </si>
-  <si>
-    <t>fügen</t>
-  </si>
-  <si>
-    <t>sparen</t>
-  </si>
-  <si>
-    <t>rücken</t>
-  </si>
-  <si>
-    <t>faulen</t>
-  </si>
-  <si>
-    <t>münzen</t>
-  </si>
-  <si>
-    <t>parken</t>
-  </si>
-  <si>
-    <t>sieben</t>
-  </si>
-  <si>
-    <t>schnellen</t>
-  </si>
-  <si>
-    <t>altern</t>
-  </si>
-  <si>
-    <t>herrschen</t>
-  </si>
-  <si>
-    <t>legen</t>
-  </si>
-  <si>
-    <t>rechnen</t>
-  </si>
-  <si>
-    <t>schaden</t>
-  </si>
-  <si>
-    <t>jubeln</t>
-  </si>
-  <si>
-    <t>russen</t>
-  </si>
-  <si>
-    <t>knurren</t>
-  </si>
-  <si>
-    <t>tauschen</t>
-  </si>
-  <si>
-    <t>gründen</t>
-  </si>
-  <si>
-    <t>stopfen</t>
-  </si>
-  <si>
-    <t>loben</t>
-  </si>
-  <si>
-    <t>lauten</t>
-  </si>
-  <si>
-    <t>fliegen</t>
-  </si>
-  <si>
-    <t>danken</t>
-  </si>
-  <si>
-    <t>betteln</t>
-  </si>
-  <si>
-    <t>raten</t>
-  </si>
-  <si>
-    <t>dauern</t>
-  </si>
-  <si>
-    <t>kehren</t>
-  </si>
-  <si>
-    <t>stören</t>
-  </si>
-  <si>
-    <t>schleppen</t>
-  </si>
-  <si>
-    <t>backen</t>
-  </si>
-  <si>
-    <t>laden</t>
-  </si>
-  <si>
-    <t>dürfen</t>
-  </si>
-  <si>
-    <t>bergen</t>
-  </si>
-  <si>
-    <t>lügen</t>
-  </si>
-  <si>
-    <t>dingen</t>
-  </si>
-  <si>
-    <t>wachsen</t>
-  </si>
-  <si>
-    <t>atmen</t>
-  </si>
-  <si>
-    <t>hexen</t>
-  </si>
-  <si>
-    <t>passen</t>
-  </si>
-  <si>
-    <t>stoppen</t>
-  </si>
-  <si>
-    <t>treffen</t>
-  </si>
-  <si>
-    <t>tragen</t>
-  </si>
-  <si>
-    <t>kommen</t>
-  </si>
-  <si>
-    <t>heißen</t>
-  </si>
-  <si>
-    <t>schlagen</t>
-  </si>
-  <si>
-    <t>dienen</t>
-  </si>
-  <si>
-    <t>herzen</t>
-  </si>
-  <si>
-    <t>wiegen</t>
-  </si>
-  <si>
-    <t>merken</t>
-  </si>
-  <si>
-    <t>reisen</t>
+    <t>erben</t>
+  </si>
+  <si>
+    <t>gnaden</t>
+  </si>
+  <si>
+    <t>zünden</t>
+  </si>
+  <si>
+    <t>schrecken</t>
+  </si>
+  <si>
+    <t>stärken</t>
+  </si>
+  <si>
+    <t>führen</t>
+  </si>
+  <si>
+    <t>trösten</t>
+  </si>
+  <si>
+    <t>suchen</t>
+  </si>
+  <si>
+    <t>knarren</t>
+  </si>
+  <si>
+    <t>dringen</t>
   </si>
   <si>
     <t>zögern</t>
-  </si>
-  <si>
-    <t>lockern</t>
-  </si>
-  <si>
-    <t>kaufen</t>
-  </si>
-  <si>
-    <t>währen</t>
-  </si>
-  <si>
-    <t>doppeln</t>
-  </si>
-  <si>
-    <t>schreiten</t>
-  </si>
-  <si>
-    <t>narren</t>
-  </si>
-  <si>
-    <t>frischen</t>
-  </si>
-  <si>
-    <t>hupen</t>
-  </si>
-  <si>
-    <t>messen</t>
-  </si>
-  <si>
-    <t>schütteln</t>
-  </si>
-  <si>
-    <t>saufen</t>
-  </si>
-  <si>
-    <t>tagen</t>
-  </si>
-  <si>
-    <t>stechen</t>
-  </si>
-  <si>
-    <t>holen</t>
-  </si>
-  <si>
-    <t>rufen</t>
-  </si>
-  <si>
-    <t>sperren</t>
-  </si>
-  <si>
-    <t>platzen</t>
-  </si>
-  <si>
-    <t>strahlen</t>
-  </si>
-  <si>
-    <t>lassen</t>
-  </si>
-  <si>
-    <t>piepen</t>
-  </si>
-  <si>
-    <t>leugnen</t>
-  </si>
-  <si>
-    <t>stärken</t>
-  </si>
-  <si>
-    <t>laufen</t>
-  </si>
-  <si>
-    <t>runden</t>
-  </si>
-  <si>
-    <t>stammen</t>
-  </si>
-  <si>
-    <t>duschen</t>
-  </si>
-  <si>
-    <t>decken</t>
-  </si>
-  <si>
-    <t>planen</t>
-  </si>
-  <si>
-    <t>tollen</t>
-  </si>
-  <si>
-    <t>ärgern</t>
-  </si>
-  <si>
-    <t>kriegen</t>
-  </si>
-  <si>
-    <t>lernen</t>
-  </si>
-  <si>
-    <t>kranken</t>
-  </si>
-  <si>
-    <t>sprengen</t>
-  </si>
-  <si>
-    <t>trotzen</t>
-  </si>
-  <si>
-    <t>leeren</t>
-  </si>
-  <si>
-    <t>kennen</t>
-  </si>
-  <si>
-    <t>nullen</t>
-  </si>
-  <si>
-    <t>grüßen</t>
-  </si>
-  <si>
-    <t>bauen</t>
-  </si>
-  <si>
-    <t>schätzen</t>
-  </si>
-  <si>
-    <t>warnen</t>
-  </si>
-  <si>
-    <t>proben</t>
-  </si>
-  <si>
-    <t>hassen</t>
-  </si>
-  <si>
-    <t>wehen</t>
-  </si>
-  <si>
-    <t>töten</t>
-  </si>
-  <si>
-    <t>regnen</t>
-  </si>
-  <si>
-    <t>spannen</t>
-  </si>
-  <si>
-    <t>streifen</t>
-  </si>
-  <si>
-    <t>scheitern</t>
-  </si>
-  <si>
-    <t>drucken</t>
-  </si>
-  <si>
-    <t>meinen</t>
-  </si>
-  <si>
-    <t>rauchen</t>
-  </si>
-  <si>
-    <t>liefern</t>
-  </si>
-  <si>
-    <t>haken</t>
-  </si>
-  <si>
-    <t>hören</t>
-  </si>
-  <si>
-    <t>leihen</t>
-  </si>
-  <si>
-    <t>schenken</t>
-  </si>
-  <si>
-    <t>starten</t>
-  </si>
-  <si>
-    <t>fesseln</t>
-  </si>
-  <si>
-    <t>süßen</t>
-  </si>
-  <si>
-    <t>locken</t>
-  </si>
-  <si>
-    <t>lehnen</t>
-  </si>
-  <si>
-    <t>spenden</t>
-  </si>
-  <si>
-    <t>ehren</t>
-  </si>
-  <si>
-    <t>ändern</t>
-  </si>
-  <si>
-    <t>ächzen</t>
-  </si>
-  <si>
-    <t>mögen</t>
-  </si>
-  <si>
-    <t>füttern</t>
-  </si>
-  <si>
-    <t>gleichen</t>
-  </si>
-  <si>
-    <t>bitten</t>
-  </si>
-  <si>
-    <t>malen</t>
-  </si>
-  <si>
-    <t>enden</t>
-  </si>
-  <si>
-    <t>klappen</t>
-  </si>
-  <si>
-    <t>opfern</t>
-  </si>
-  <si>
-    <t>zielen</t>
   </si>
   <si>
     <t>N/A</t>
